--- a/results_cnn_subnetworks_evaluation/cnn_validation_SubRCM_pcc_by_advanced_fm_linear_ratio_rcm.xlsx
+++ b/results_cnn_subnetworks_evaluation/cnn_validation_SubRCM_pcc_by_advanced_fm_linear_ratio_rcm.xlsx
@@ -21,6 +21,7 @@
     <sheet name="rational_quadratic_sr_0.75" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="generalized_gaussian_sr_0.75" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="sigmoid_sr_0.75" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="exponential_sr_0.5" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2532,6 +2533,356 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>93.1858407079646</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1820222433838353</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.931858407079646</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9307957872879407</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>91.0355625913719</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2627593976303615</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9103556259137189</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9058109398269615</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>94.30678466076697</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1612149100188011</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9430678466076696</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9426649751578715</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>92.77303436880942</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1913708697582479</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9277303436880942</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9276016107503413</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>83.24483775811208</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.481974145477822</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.832448377581121</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8192565634699776</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>90.14749262536873</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2664082736320173</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9014749262536872</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8991782736889853</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>89.79368333636106</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2564925389674803</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8979368333636104</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8982996242675746</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>90.11799410029498</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2491606298446035</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9011799410029498</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.898792571378723</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>89.5575221238938</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2765912811776313</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8955752212389381</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8943418626208623</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>90.67846607669617</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2601850800041575</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9067846607669617</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9007346370382434</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>84.74926253687315</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4972090168606883</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8474926253687316</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8425488261323499</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>82.97952404432564</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5899563371902332</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8297952404432565</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8174382747019188</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>97.72861356932154</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.07749400762198397</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9772861356932154</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9774151453515753</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>97.75811209439527</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.06700307044247135</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9775811209439528</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.977878117285042</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>96.25368731563421</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1014447205930386</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9625368731563422</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9613718288819806</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>90.9540278606793</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2614191015068916</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.909540278606793</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9062752691893564</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/results_cnn_subnetworks_evaluation/cnn_validation_SubRCM_pcc_by_advanced_fm_linear_ratio_rcm.xlsx
+++ b/results_cnn_subnetworks_evaluation/cnn_validation_SubRCM_pcc_by_advanced_fm_linear_ratio_rcm.xlsx
@@ -63,6 +63,13 @@
     <sheet name="rational_quadratic_sr_0.15" sheetId="54" state="visible" r:id="rId54"/>
     <sheet name="generalized_gaussian_sr_0.15" sheetId="55" state="visible" r:id="rId55"/>
     <sheet name="sigmoid_sr_0.15" sheetId="56" state="visible" r:id="rId56"/>
+    <sheet name="exponential_sr_0.1" sheetId="57" state="visible" r:id="rId57"/>
+    <sheet name="gaussian_sr_0.1" sheetId="58" state="visible" r:id="rId58"/>
+    <sheet name="inverse_sr_0.1" sheetId="59" state="visible" r:id="rId59"/>
+    <sheet name="powerlaw_sr_0.1" sheetId="60" state="visible" r:id="rId60"/>
+    <sheet name="rational_quadratic_sr_0.1" sheetId="61" state="visible" r:id="rId61"/>
+    <sheet name="generalized_gaussian_sr_0.1" sheetId="62" state="visible" r:id="rId62"/>
+    <sheet name="sigmoid_sr_0.1" sheetId="63" state="visible" r:id="rId63"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18674,6 +18681,1056 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>58.44445021150703</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9217367460330328</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5844445021150702</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5784409164643337</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>52.63791209266516</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9117187440395356</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5263791209266516</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5202402037384146</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>59.18450851650967</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8499596744775773</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5918450851650966</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5771239332998722</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>48.23026150745248</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.035389711459478</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4823026150745249</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.4718539762684265</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>63.92667756641494</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8705315589904785</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6392667756641494</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6257911289347492</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>65.08179136497721</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7928182738522689</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.650817913649772</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6469508053251539</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>51.32890422927534</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.08777538985014</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5132890422927534</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.4989481952673748</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>51.41229595411725</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.080925511320432</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5141229595411725</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5081786139204885</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>52.77848424294327</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.049726915359497</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5277848424294328</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5094438739983629</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>65.88032768449554</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7908514151970545</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6588032768449554</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.655091879282517</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>54.70246282407287</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.022351085146268</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5470246282407287</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5394345731731698</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>54.61967664080139</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.007731317480405</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5461967664080138</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5375349504062856</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>83.14241472677099</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4322657151768605</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.83142414726771</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8293606522019047</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>82.49292813951678</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4711208716034889</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8249292813951679</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8235079637285849</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>85.30151644910424</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3543735847071124</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8530151644910424</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8522305056854241</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>61.94430747670827</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8452851009795753</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6194430747670828</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6116088114463375</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>78.00153980570767</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6145741183310747</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7800153980570765</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.777759027564784</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>74.57754824868728</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6599335240821044</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7457754824868728</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7366206344712729</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>64.80540489104577</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8038237981498242</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6480540489104577</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6400536150097172</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>63.59700343428576</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8827975789705912</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6359700343428576</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6300174797239213</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>58.20084948831737</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9437739590803783</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5820084948831737</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5817020174705232</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>67.78475592349415</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7809984003504117</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6778475592349416</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.671113856612106</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>58.97853787662523</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.940489516655604</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5897853787662524</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5886622697990467</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>52.98358982344138</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.058922613660494</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5298358982344138</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5200165198679479</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>63.82659019541692</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9051457119484743</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6382659019541692</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6314968430640577</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>77.71693526760612</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5729293038447698</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7771693526760612</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7721136851628996</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>68.51287640896547</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8771089591085911</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6851287640896547</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6724231158770964</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>60.16669694374518</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.941805174946785</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6016669694374519</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5984395179878045</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>83.16239759859515</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4666023271779219</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8316239759859514</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8306598900806355</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>84.16638552236611</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.3726984432180567</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8416638552236611</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8404175405940979</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>82.63021306412685</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.4835879718263943</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8263021306412686</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8235666044552505</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>69.27408829949509</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7536794267567651</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.692740882994951</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.687670841182744</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>77.29513231083314</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6163161005824804</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7729513231083314</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7690869306236279</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>71.9266602652272</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7271146744489669</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.719266602652272</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7091746586330135</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>66.83682384795716</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8078407456477483</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6683682384795716</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6595555810771425</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>61.67856123322866</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9005979458491009</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6167856123322866</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6151937566158507</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>58.82291369302502</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9679612981776398</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5882291369302503</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5830899108612009</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>67.22774418463828</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7855200377603372</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6722774418463827</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6592358601151851</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>60.27041756416578</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9154824276765187</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6027041756416578</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.597538976512108</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>53.10019982871823</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.043562442064285</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5310019982871824</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5196305741051686</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>59.5270720334951</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.011850449939569</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.595270720334951</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5833355997677269</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>80.96004290694556</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4867127042263746</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8096004290694555</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8078393885811443</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>69.95934220884263</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.884642717987299</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6995934220884263</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6824392302969964</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>59.63987577747213</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9718365907669068</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5963987577747212</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5931433254716236</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>83.69094888364086</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4434821592022975</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8369094888364087</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8352030999883528</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>85.67236740802255</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.3315644235544217</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8567236740802257</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8549762461737401</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>82.92433325547799</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.4396995856737097</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8292433325547799</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8264580059089324</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>69.30216236011269</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7556122869038437</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6930216236011267</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6863934096487877</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -19017,6 +20074,1406 @@
       </c>
       <c r="E17" t="n">
         <v>0.9224008875156068</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>75.41137899116775</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6211111713200808</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7541137899116774</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7499618706581027</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>72.54215001859878</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6831170742710431</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7254215001859878</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7142368599352281</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>72.08064083599339</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.6530290817221006</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7208064083599339</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7187809187412121</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>72.94007733630914</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.6667333260178566</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7294007733630914</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7281713216322376</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>64.10280365747109</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9205950503547987</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6410280365747109</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6279331260395349</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>63.32788345919947</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.856156544884046</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6332788345919947</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6309860199229061</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>68.27982941028901</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7658015067378681</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6827982941028902</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6779781088189217</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>62.32493360669211</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9207336681584518</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.623249336066921</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6193784996891371</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>63.17347035874013</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.874914537370205</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6317347035874012</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6271084302035984</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>71.552954610334</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6958374798297882</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.71552954610334</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7069621496073066</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>61.30494208427409</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.151117215429743</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6130494208427408</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6054458473662118</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>63.55764323220789</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9309086407224336</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6355764323220789</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6315358746383726</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>91.50823104006091</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2284179413574748</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9150823104006089</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.915496847076349</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>88.41192397858113</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2675772299679617</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8841192397858112</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.884243867940455</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>83.72373463438265</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.4059582662768662</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8372373463438265</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8365218137079827</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>71.61617315028678</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7094672489613811</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7161617315028675</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7116494370651705</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>54.9526379985986</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9921678344408671</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5495263799859861</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5375881484191212</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>59.1790586423758</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8770603020985922</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5917905864237579</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.560421140306898</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>56.55074870889887</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9687258422374725</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5655074870889887</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5525242514149336</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>51.62830128288307</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.003822418053945</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5162830128288307</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5080063657538672</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>53.14509641086861</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.081517745306094</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5314509641086861</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5004601384887072</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>52.73384717860881</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.118138000369072</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5273384717860881</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5091743769177672</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>42.00987897819185</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.235330726703008</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4200987897819185</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.3936800329308119</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>45.6586994697186</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.097674777110418</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4565869946971859</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.4536520474097093</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>46.85940189794029</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.203446978330612</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.468594018979403</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.4505055617680617</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>60.53495272450454</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9438518762588501</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6053495272450454</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5896015336726289</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>51.2663604356439</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.093830273548762</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5126636043564391</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.486572125247506</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>43.83567331897335</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.094009860356649</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4383567331897334</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.4000339347984135</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>63.08281213505308</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8166318943103155</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.6308281213505308</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.6267818286049456</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>77.69210806321854</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4998812033950041</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7769210806321853</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7703851008413536</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>83.16023495012932</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.4127826608717441</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8316023495012933</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8266631534052724</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>56.15265414637382</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9625914928927606</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.5615265414637381</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5444033159986665</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>76.94166904557997</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6312635346005361</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7694166904557997</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7644415657211437</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>71.74845803164388</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.704654447392871</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7174845803164387</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7027542501708792</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>68.28104049342987</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7135517311592896</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6828104049342987</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6778589230575092</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>63.5348921703475</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8432529538869857</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.635348921703475</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6348097438524782</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>61.6723328056471</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.898724365234375</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.616723328056471</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6130875818504219</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>67.22289985207485</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7492458432912826</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6722289985207485</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6697492284645999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>57.82826841062639</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.006201868255933</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5782826841062638</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5686643692140776</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>52.04015605671329</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.03454048037529</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5204015605671329</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5106361563847263</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>61.67890725698319</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.976750985532999</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.616789072569832</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6044937329552527</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>77.71728129136065</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5600848117222388</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7771728129136065</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7742232152034325</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>69.60466786044861</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9052548664311567</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6960466786044862</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6904023915898446</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>57.81304336542704</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.00802139689525</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5781304336542703</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.572791051432965</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>82.06853000458482</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4830469961588581</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8206853000458482</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8215978890179739</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>86.9970328463049</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.3012145817939503</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8699703284630489</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8702936697357174</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>85.28231213072777</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.408941263332963</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8528231213072777</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.850156400843629</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>69.36209944145999</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7483166750709319</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6936209944145999</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6883973446329767</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>67.24616994956703</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8587930196275314</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6724616994956704</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6657211356383208</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>65.94918641164716</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8228899064163366</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6594918641164715</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6527407564529579</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>72.61196031107536</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.6432304573555787</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7261196031107535</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7138909435359853</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>55.76665888113219</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9792000164588293</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5576665888113219</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5521974257922164</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>52.99345150044551</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.114158923303088</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5299345150044551</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.495462595117804</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>60.98115035597194</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9761299957831702</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6098115035597194</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6051345678669511</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>61.42345522020086</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9224853400141001</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6142345522020086</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6032521209090673</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>60.18728535713976</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9012001375357309</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6018728535713976</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5939992123689027</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>56.20757965034299</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.072629941503207</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.56207579650343</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.548347487237774</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>71.77847559234941</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6954385245839754</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7177847559234941</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7118837099074029</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>68.93191117570221</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8190769933164119</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6893191117570221</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6802614485531275</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>64.42434623136879</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8156957864761353</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6442434623136879</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6332647177022839</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>80.69265305063193</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5053138418744008</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8069265305063192</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8075680111202994</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>83.54899263834463</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.3548671681045865</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8354899263834461</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8331070312362565</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>83.19777852749591</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.5078540466725826</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8319777852749592</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8281813489618646</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>67.06273699022772</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7992642732683776</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6706273699022772</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6616675008267477</v>
       </c>
     </row>
   </sheetData>

--- a/results_cnn_subnetworks_evaluation/cnn_validation_SubRCM_pcc_by_advanced_fm_linear_ratio_rcm.xlsx
+++ b/results_cnn_subnetworks_evaluation/cnn_validation_SubRCM_pcc_by_advanced_fm_linear_ratio_rcm.xlsx
@@ -28,6 +28,27 @@
     <sheet name="rational_quadratic_sr_0.5" sheetId="19" state="visible" r:id="rId19"/>
     <sheet name="generalized_gaussian_sr_0.5" sheetId="20" state="visible" r:id="rId20"/>
     <sheet name="sigmoid_sr_0.5" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="exponential_sr_0.4" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="gaussian_sr_0.4" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="inverse_sr_0.4" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="powerlaw_sr_0.4" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="rational_quadratic_sr_0.4" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="generalized_gaussian_sr_0.4" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="sigmoid_sr_0.4" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="exponential_sr_0.3" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="gaussian_sr_0.3" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="inverse_sr_0.3" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="powerlaw_sr_0.3" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="rational_quadratic_sr_0.3" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="generalized_gaussian_sr_0.3" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="sigmoid_sr_0.3" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="exponential_sr_0.25" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="gaussian_sr_0.25" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="inverse_sr_0.25" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="powerlaw_sr_0.25" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="rational_quadratic_sr_0.25" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="generalized_gaussian_sr_0.25" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="sigmoid_sr_0.25" sheetId="42" state="visible" r:id="rId42"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5339,6 +5360,2806 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>88.14159292035399</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.329041027095324</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8814159292035398</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8763239944335364</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>89.70674486803519</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2986431149571824</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8970674486803519</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8858196175542723</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>94.60176991150442</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1615863054753087</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9460176991150442</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9460093157339848</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>90.35398230088495</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2551974282163428</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9035398230088496</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9019387229744668</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>84.77876106194689</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4393211184205332</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8477876106194691</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8414950551242381</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>91.03244837758112</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2340262759496302</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9103244837758112</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9113142348696541</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>85.81120943952803</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4676138253135528</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8581120943952802</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8463569974318244</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>90.41297935103245</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2816592636537583</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9041297935103245</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9020921845847264</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>88.25958702064896</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.375607047501641</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8825958702064897</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8681910615050186</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>88.61356932153392</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.329111173908556</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8861356932153391</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8775310701074561</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>86.31268436578171</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4819221872860605</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8631268436578171</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8497252946501723</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>83.83480825958702</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.4984472458076198</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8383480825958702</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8203545980515283</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>96.96234396491319</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0973647262048568</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9696234396491319</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9696014278372818</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>98.40707964601771</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.05725091338814915</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9840707964601769</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9841229816937643</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>95.9045493473127</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1215069383337929</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.959045493473127</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9580508040889091</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>90.20894067711082</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2952199061008206</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.902089406771108</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8959284907093888</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>94.77876106194689</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1344662961642219</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.947787610619469</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9475973786299565</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>92.15356534226075</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.328939532764313</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9215356534226075</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9147757343977924</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>96.047197640118</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1256188987914129</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9604719764011799</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9597371663068758</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>89.29203539823008</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3431058995489972</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8929203539823009</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8857298548514368</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>92.44837758112094</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1925513156790354</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9244837758112094</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9214295912360815</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>92.27138643067846</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2867753592669032</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9227138643067846</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9120810250920043</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>90.14749262536873</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3126550831701024</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9014749262536874</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.89765571270815</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>89.14454277286136</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2944539827167318</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8914454277286137</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8895349197208071</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>91.32743362831859</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2799703596014297</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9132743362831859</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9113364336947821</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>92.62536873156343</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2221295157597827</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9262536873156343</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.924183093767781</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>86.93215339233038</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4971176162215367</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8693215339233038</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8606128211151065</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>85.75221238938053</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5407910639662684</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8575221238938052</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8424990505224212</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>96.3716814159292</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1081626911390534</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.963716814159292</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.964150213981986</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>98.67273938355868</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.03876841389325705</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9867273938355868</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9867605036843301</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>93.86430678466077</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1966417112996472</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9386430678466077</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9303289536969575</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>92.12195030522179</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2601431826655128</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9212195030522178</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9165608302270979</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>94.10029498525074</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1851714635799605</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9410029498525073</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9392945849122363</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>92.30088495575221</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2942303505230787</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.923008849557522</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9146571937431952</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>95.75221238938053</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1589524236797085</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9575221238938052</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9547176716980722</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>89.41002949852508</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2958672315745692</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8941002949852507</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8873800481663476</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>93.1858407079646</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1788485707492024</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.931858407079646</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9313605634036642</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>92.47787610619469</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2068575358231707</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9247787610619469</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.921819940003904</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>88.76106194690266</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.352552234500278</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8876106194690265</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8792154382255415</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>90.20648967551622</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2518111022413602</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9020648967551622</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9003716621525737</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>92.56637168141593</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2193509004525064</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9256637168141593</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9231886923456221</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>92.68436578171091</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.208881865408451</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9268436578171091</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9238162821771606</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>86.28318584070796</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5146151744571398</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8628318584070798</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8519148579588703</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>86.01769911504425</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5460171025159071</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8601769911504424</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8456688927380196</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>97.22713864306785</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.08748219395323152</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9722713864306785</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9723762707629231</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>98.58407079646017</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.04607035384507678</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9858407079646018</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9858914184170414</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>93.74631268436579</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1942117918993972</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9374631268436578</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9304385031114168</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>92.22025565388397</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2493946863468692</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9222025565388398</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9174741346544393</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>92.59587020648968</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1961164754289105</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9259587020648967</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9252749089401524</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>91.71108746615455</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2342139592641615</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9171108746615456</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9103857271811545</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>95.10324483775811</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1437206459491184</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9510324483775812</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9501724167440605</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>91.03244837758112</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2432021452486272</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9103244837758112</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9054027885032412</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>87.28613569321534</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.2877176429183843</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8728613569321533</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8709364513039082</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>89.85250737463127</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2831528277378917</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8985250737463127</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8974663871575966</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>89.82300884955752</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3178864382673055</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8982300884955752</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8959456906758833</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>89.9410029498525</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2755179154444097</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.899410029498525</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.896389609670505</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>89.32153392330383</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3373639510478824</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8932153392330383</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8853991282678552</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>91.56342182890856</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2384653524602375</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9156342182890855</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9100579678159002</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>85.69321533923303</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4533318472793326</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8569321533923304</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8458084332558643</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>84.07079646017698</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5467233712668531</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8407079646017699</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8275400209302509</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>97.31563421828909</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.08859866810501747</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9731563421828909</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9731183129153902</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>98.28908554572271</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.05350781893430394</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9828908554572271</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9829270552993513</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>95.9882005899705</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1246937221820796</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9598820058997051</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9590695947531355</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>91.30581291072298</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2549475187689677</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9130581291072298</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9090596328942833</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>90.67898511232796</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2523969062972659</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9067898511232796</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.90606431318562</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>82.49379319890311</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4608941388937334</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8249379319890311</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8218182761377678</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>93.0976911564979</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1940086951037908</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.930976911564979</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9306209622292572</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>76.93941989117553</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5812870188616216</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7693941989117553</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.757936754884071</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>79.32239898269016</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5122090604961461</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7932239898269016</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7851291479616619</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>87.28924990700611</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3060215109959245</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8728924990700613</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8727283405288443</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>79.20613500116784</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7846257239929401</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7920613500116783</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.771563407806641</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>86.81485133954445</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.330874324333854</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8681485133954446</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8663007422036829</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>83.48221005372019</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4181037581836183</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8348221005372018</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8267252991288396</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>88.49713232813433</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2917657649920632</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8849713232813432</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8822036799508315</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>80.83166809401465</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5542380681727082</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8083166809401465</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7981415237513056</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>78.08449900085641</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.631603242647058</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7808449900085641</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7639043923244142</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>95.81120943952803</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1250066751187357</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9581120943952802</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9584740846934954</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>94.07079646017699</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1391322857585086</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.94070796460177</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9404450331637401</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>93.06784660766962</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1776543546228519</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9306784660766961</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9249332521163698</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>85.97919243822756</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3839881018980547</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8597919243822756</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8537992806711029</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>93.83480825958702</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.183773570184682</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9383480825958703</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9371206870137196</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>93.45132743362832</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2550950713239065</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9345132743362832</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9312286130229008</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>96.51917404129793</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1074257831329911</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9651917404129794</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9641872255413249</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>89.64601769911505</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.322291562120275</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8964601769911503</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8899609482450067</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>93.06784660766962</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1709418386202742</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9306784660766961</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9293756840391966</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>92.18289085545723</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2366316039173398</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9218289085545722</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9159731111217748</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>88.61356932153392</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4181148090802405</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8861356932153391</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8745943555965928</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>91.35693215339234</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2181622091007739</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9135693215339232</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9133719221288278</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>91.76991150442477</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2609697712987933</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9176991150442477</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9095017702774666</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>93.74631268436579</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1978684356751425</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9374631268436578</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9355558203757013</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>85.95870206489676</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.517662602954321</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8595870206489675</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8501776290470044</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>85.69321533923303</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5057053490345425</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8569321533923304</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8423664241766936</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>96.3716814159292</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1047109194393367</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.963716814159292</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9642073319282233</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>98.28908554572271</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.05604656825039456</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9828908554572271</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9829695929322291</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>93.68731563421829</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2041716569388124</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9368731563421828</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9294673639948346</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>92.27925270403146</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2506381167381217</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9227925270403147</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9180038986294331</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>94.15929203539824</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1600673245331564</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9415929203539823</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9407031515182082</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>92.53704616821945</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2585308195079733</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9253704616821945</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9199405617164202</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>95.75221238938053</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.135012216389138</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9575221238938052</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9568013302920881</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>88.17109144542772</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3782797249919289</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8817109144542773</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8753956910901579</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>92.65486725663717</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1910050055453515</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9265486725663716</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9250270194544233</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>92.44837758112094</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2147216120402542</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9244837758112094</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9211748298967157</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>88.55457227138643</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3314096836004562</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8855457227138643</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8794812140194059</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>89.91150442477877</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2610037897936612</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8991150442477875</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8968419692513209</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>88.58407079646017</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3098096262527785</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8858407079646018</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8795930722290517</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>93.00884955752213</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2005471188497419</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9300884955752213</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9292922646758199</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>86.51917404129793</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4866094043531727</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8651917404129794</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8578935397411444</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>87.28613569321534</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5431959660049566</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8728613569321535</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8545978813470034</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>96.07669616519175</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.117188429255854</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9607669616519174</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9604276650428961</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>98.34808259587021</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.05313440833995552</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9834808259587021</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9835233614732033</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>93.74631268436579</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1943773231635078</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9374631268436578</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9287494593156704</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>91.85055234041819</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2556594968414591</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9185055234041818</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9139628674042353</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>84.80825958702064</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.393336446940278</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8480825958702065</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8405222072335832</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>72.22415418818501</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6541870914399623</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7222415418818502</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7179672826995382</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>85.75221238938053</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3719139939639717</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8575221238938052</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.852163615089229</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>89.67551622418878</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2863041511445772</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8967551622418879</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.89333302315626</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>85.48672566371681</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3699511807198481</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8548672566371682</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8520201069641515</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>90.53097345132744</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2563062748910548</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9053097345132743</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9046123268030198</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>73.98230088495575</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6512779743565867</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7398230088495575</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.738763096312821</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>83.83480825958702</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4045128668503215</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8383480825958702</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.837340982389166</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>84.24778761061947</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3507189432314287</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8424778761061947</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.841836793487832</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>86.4306784660767</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3452411579918893</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8643067846607669</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8645809068868129</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>82.33038348082596</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5186024503821197</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8233038348082596</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.827733060070846</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>79.70501474926253</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5386054711125325</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7970501474926254</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7852397593124935</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>95.9882005899705</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.139776845583007</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9598820058997051</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9597142406709832</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>97.9646017699115</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.06136743561716382</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9796460176991151</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9797088351052115</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>96.63959030787464</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1110507639637945</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9663959030787463</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9656686411861438</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>85.97341384152689</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3635435365459023</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8597341384152689</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.857413658491206</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -5682,6 +8503,3506 @@
       </c>
       <c r="E17" t="n">
         <v>0.9224087028327798</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>92.71386430678466</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2427630670041253</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9271386430678467</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9244533932160472</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>88.64410591787126</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3578954893756114</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8864410591787127</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8800638586805416</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>95.30973451327434</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1811891210860571</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9530973451327434</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9520874238161074</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>88.82005899705015</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3353630206392457</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8882005899705014</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8860115658114504</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>88.34808259587021</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3079711622124402</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8834808259587021</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8794125661808305</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>91.94690265486726</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2275647585745901</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9194690265486726</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.916770149559536</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>88.52507374631269</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3448749546514591</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8852507374631269</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8770625169399283</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>86.28318584070796</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4017555183527293</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8628318584070798</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8566963606635241</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>89.05604719764013</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3289248582577177</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8905604719764012</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8858669118849496</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>91.17994100294985</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2403895571565954</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9117994100294986</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9079727078829268</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>86.60766961651917</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5341524535530577</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8660766961651918</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.857380037126908</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>85.42772861356931</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5429110681453798</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8542772861356932</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8396397574130896</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>95.39823008849558</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1558505886379862</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9539823008849557</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9534436158553593</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>97.1094905665274</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0827757366172894</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9710949056652739</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9714553980564562</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>94.21828908554572</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1923936149101792</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9421828908554571</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9386469457414639</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>90.63922698293237</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2984516646116309</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9063922698293239</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9017975472552746</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>93.6283185840708</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1885207046090121</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.936283185840708</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9358508734259814</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>89.70674486803519</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3371989895225852</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8970674486803519</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8935952423455596</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>95.69321533923303</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1531854528657277</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9569321533923304</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9561621800735128</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>89.73451327433628</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3021434326656163</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8973451327433629</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8937159364617429</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>87.72861356932154</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3384212719582138</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8772861356932153</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8732970607645288</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>90.20648967551622</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3197567182874385</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9020648967551622</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8925179455606644</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>88.55457227138643</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4095169598382199</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8855457227138643</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8764040773968264</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>89.1740412979351</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2765403772667924</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.891740412979351</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.889958529836514</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>88.46607669616519</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4222587508100938</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.884660766961652</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8712112012252303</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>90.53097345132743</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3033927923641992</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9053097345132743</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.898775259937668</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>85.51622418879056</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.537055401946418</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8551622418879056</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8454322082041855</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>84.89675516224189</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.542670237503747</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8489675516224189</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8359526567503714</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>94.98525073746313</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.153851891309993</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9498525073746313</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9498600064780213</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>97.37722644659556</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.06935524470160695</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9737722644659556</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9738533670338555</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>94.83775811209441</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1560094666520551</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9483775811209438</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9468318433937999</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>90.73578491163418</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3006585128201146</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9073578491163418</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9022278925925643</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>90.29498525073747</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2629796255219844</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9029498525073747</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8984274629221334</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>91.44542772861357</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2279174772294937</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9144542772861357</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9116816488871493</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>94.12979351032449</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1552851675000663</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9412979351032448</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9404891388993333</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>89.52802359882006</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3040550493637663</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8952802359882005</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8890746478089572</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>85.39823008849558</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.385005732687326</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8539823008849557</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8501643619338168</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>89.5575221238938</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2917318313848227</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8955752212389381</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8952041249969019</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>87.52212389380531</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.343246894145462</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8752212389380531</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8706739746902858</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>91.26843657817109</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2413716365534735</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9126843657817109</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.912564057061245</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>88.70206489675516</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3521765586910381</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8870206489675516</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8782916234016536</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>91.47492625368731</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.231933726304851</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9147492625368731</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9112199210334367</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>83.00884955752213</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6323750925269753</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8300884955752211</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8226525243743061</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>84.3362831858407</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5962495007033188</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.843362831858407</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8280832526025858</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>96.69616519174042</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.09813814225532649</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9669616519174042</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.966921890356085</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>97.79072483325982</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.06972284740950271</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9779072483325981</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9779573429134499</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>93.92330383480825</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2029923594159906</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9392330383480825</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9329132449489503</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>90.33845736843166</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2930121094462266</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9033845736843167</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8990879477886861</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>87.17627315115183</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3330087811065217</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8717627315115182</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8697729249966051</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>80.5748319622142</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5043342646366606</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8057483196221421</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7901068033651613</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>90.2373722956081</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2582935072481632</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.902373722956081</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9018064158082207</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>77.71226394691996</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5253668545434873</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7771226394691996</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7731126820503278</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>80.91531933667247</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4681069067136074</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8091531933667246</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8035186246863766</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>82.86377909843512</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4723688159137964</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8286377909843511</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8227360844961555</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>79.086929817732</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6216950548347085</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7908692981773198</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7762778609222074</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>83.45288454052371</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4080301162631561</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8345288454052371</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8301554134601057</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>76.90940233046999</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5590200131138165</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7690940233046999</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7668500991783013</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>87.14556354293723</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3057437603361904</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8714556354293723</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8709397526851529</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>82.36126610091783</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5138250761975844</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8236126610091782</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8184871455694853</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>74.89935034040087</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6535353661767052</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7489935034040087</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7367320765099412</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>90.57258280780975</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2752256450398515</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9057258280780974</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9056192648729032</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>88.90855457227138</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2861008773664556</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8890855457227138</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8755728908170063</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>93.86430678466077</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1757988541192996</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9386430678466077</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9359208014816177</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>83.77871204191503</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.4240302595740003</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8377871204191502</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8318405893933044</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>93.53982300884955</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1925416660812819</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9353982300884957</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9336494775049866</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>89.23805569252329</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3398345873691141</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.892380556925233</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8832817529438663</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>95.51622418879056</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1430319278242071</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9551622418879055</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9544161239422376</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>87.75811209439527</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4298520390570048</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8775811209439528</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.868429806577163</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>87.55162241887906</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3104848035950757</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8755162241887906</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8715574808086826</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>91.29793510324484</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.279106075646511</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9129793510324484</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.905949652365036</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>88.67256637168143</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3245476341049652</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8867256637168142</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8838538909477467</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>89.6165191740413</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3140340558374495</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.896165191740413</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8866114184649792</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>89.08554572271387</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3912196081151099</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8908554572271387</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8787064663969331</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>91.20943952802359</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2619748330168173</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9120943952802361</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9107690772286846</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>86.93215339233038</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4547304478328442</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8693215339233038</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8604113837671798</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>85.6637168141593</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.54704027629341</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.856637168141593</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8415864526118474</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>95.16241489978287</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1519404574045135</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9516241489978287</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9513381744919812</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>97.75811209439527</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.07185003610929926</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9775811209439528</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.977610761112096</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>93.24483775811208</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2184640045112967</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.932448377581121</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9258686159695564</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>90.81647188412816</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2953768301865933</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9081647188412816</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9022693690088651</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>93.5103244837758</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1936703628828885</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9351032448377581</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9339553011456321</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>90.47249543681173</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3042883478665317</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9047249543681174</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9021462645342655</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>95.13274336283186</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1489933488301783</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9513274336283185</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9507160805185648</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>89.64601769911505</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3234551391394537</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8964601769911503</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.887817153612365</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>87.72861356932154</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3327962567137244</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8772861356932153</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8710976424331861</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>91.32743362831859</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2947223597516616</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9132743362831859</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9068397882209599</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>88.76106194690266</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3690739240410039</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8876106194690265</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8792398040828131</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>89.46902654867257</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2879925350479122</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8946902654867257</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8917644698318974</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>88.52507374631269</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3584928579599364</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8852507374631269</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8801438252643085</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>91.56342182890856</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2722976148919164</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9156342182890855</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9119849930850215</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>86.57817109144543</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5535398205582169</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8657817109144542</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8545764259251479</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>84.10029498525074</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5833030457710265</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8410029498525073</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8268512948457957</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>95.90160814539918</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1270811368138917</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9590160814539918</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9586484133270672</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>96.0773882127008</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1014640454383273</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9607738821270081</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9604933578987506</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>93.92330383480825</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2123045035072513</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9392330383480825</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9312771526529525</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>90.84779856803836</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2975650199475948</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9084779856803835</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9031701311585818</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>82.00589970501474</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.409765963962612</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8200589970501475</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8190519795177016</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>70.38901720603118</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6665939235749344</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7038901720603119</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6968871211906488</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>83.33333333333334</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3947217522887513</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8265978086213981</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>85.81155546328255</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3594311891424392</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8581155546328254</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8585299517483136</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>82.07216325400739</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4384117885337521</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8207216325400738</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8178325960091029</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>88.67256637168141</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3338127598399296</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8867256637168142</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8822679860618212</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>77.37463126843657</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6750921589167167</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7737463126843658</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7675153117079522</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>83.21533923303835</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4087046382871146</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8321533923303835</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.831697188699535</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>83.42182890855457</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4035797801528436</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8342182890855458</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8223901829695048</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>84.63144144845543</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.381472559851439</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8463144144845544</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8487725978925944</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>82.24188790560473</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.503889553885286</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8224188790560472</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8177948286977068</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>78.14159292035399</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5043800928629935</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7814159292035399</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7782760341383397</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>95.60471976401179</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1562754677831739</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.956047197640118</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.95525415617596</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>97.22713864306785</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.08041782775738586</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9722713864306785</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9723573174153397</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>96.41086860612981</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1141004413149252</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9641086860612982</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9640764412205904</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>84.70359893540025</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3887099932102865</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8470359893540024</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8439534334711005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>92.89085545722715</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2273827345966614</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9289085545722713</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9275461908540213</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>89.64740179413317</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.316173374397719</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8964740179413317</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8931178012612557</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>95.01699841694133</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1712510173882644</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9501699841694133</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9490200696148779</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>83.83636536648241</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5465050779127826</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8383636536648241</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8244613865832218</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>86.84365781710915</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3341191189208378</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8684365781710914</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8667946459576733</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>91.82890855457228</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2391414777264193</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9182890855457227</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9156134032356679</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>89.5575221238938</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3042990397138056</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8955752212389381</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8907112528285399</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>87.40430280538759</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3586911909328289</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8740430280538758</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8710757194782011</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>88.52507374631269</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3735048240167089</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8852507374631269</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8754380475426684</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>91.85892611527781</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2489711762515071</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9185892611527782</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9136716350165383</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>85.04788103703319</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6291435259083906</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8504788103703319</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8413425571312457</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>84.54277286135694</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5664226254467697</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8454277286135692</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8319071141439203</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>95.78171091445428</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1452280193043407</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9578171091445429</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9575852167457372</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>97.58146696770733</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.06450911041641423</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9758146696770733</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9760398306716132</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>94.42564382044827</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2006682961697455</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9442564382044827</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9418457995901013</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>90.31929918655581</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3150673739402131</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.903192991865558</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8984113780436854</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>91.68141592920354</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.247795137065259</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9168141592920354</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9109654994447259</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>83.34241645688977</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6029248918991168</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8334241645688977</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8240158433143312</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>95.25073746312685</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1561092513878975</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9525073746312686</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9512904831093507</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>85.07391932456163</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5702674904682984</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8507391932456162</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8337220144087623</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>87.99410029498526</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.2899334634615419</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8799410029498524</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8799686114910958</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>91.12250105969775</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2780018326942809</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9112250105969775</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9058935143429195</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>88.96755162241888</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3220923357390954</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8896755162241888</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8839440776065111</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>88.25958702064896</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3610607901777257</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8825958702064897</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8779201274900974</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>88.05309734513274</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.364268849400105</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8805309734513275</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8729609682111711</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>91.50442477876106</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2649174946074103</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9150442477876106</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9073264145581235</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>84.98525073746313</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5138933912753904</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8498525073746312</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8421900541737743</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>83.80530973451327</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6581129040535112</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8380530973451327</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8207380242128794</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>94.86725663716814</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1720080538056209</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9486725663716815</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9475136873579126</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>97.13881607972387</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.07315254720081915</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9713881607972388</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9714256423707587</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>94.51327433628319</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1624200320710467</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9451327433628318</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9426247346804043</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>89.77064392137187</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3357972310204746</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8977064392137188</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8914999797848545</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>88.90855457227138</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2964018832016639</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8890855457227138</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8865729017910928</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>89.03883251585221</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3311653216131769</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8903883251585221</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8848721849563009</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>93.36283185840708</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2167611824867587</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9336283185840708</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9304070946182132</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>88.96755162241888</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3211892528130799</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8896755162241888</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8859679812772224</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>83.03834808259587</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4423475771376009</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8303834808259587</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8251121964301122</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>88.11209439528024</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.371940697436609</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8811209439528023</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8752273101066042</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>87.02618534762412</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4800195671947828</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8702618534762412</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8582599760929241</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>91.17994100294985</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2452736297467103</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9117994100294986</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.910410919201912</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>88.17109144542772</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4055417827000686</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8817109144542773</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8727994661298986</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>90.97345132743362</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2175088014870804</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9097345132743364</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9076824509051222</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>83.6283185840708</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6563902576085334</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.836283185840708</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8227833153532899</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>83.952802359882</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.4891762796226733</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8395280235988201</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8299808688478378</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>96.46017699115045</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.112486867601001</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9646017699115044</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9645663747967502</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>98.05309734513274</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.06089090602805906</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9805309734513274</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9806635342730301</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>92.71403731866192</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2740217676532363</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9271403731866192</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9205961962120772</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>89.57248765127727</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3280743849554024</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8957248765127727</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8903935180661591</v>
       </c>
     </row>
   </sheetData>
@@ -6039,6 +12360,1056 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>87.70257528179309</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3235585926039978</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8770257528179309</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8763885604033353</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>80.19152414813277</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.494008413888514</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8019152414813278</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7971064187154989</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>91.97916936997726</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2278367376207219</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9197916936997725</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.917810735365484</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>80.11868614780404</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5733258621146281</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8011868614780404</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7881052420484396</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>78.26105762160572</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5528789879953062</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7826105762160572</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7753829205333855</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>80.67863908857343</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5207440940663218</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8067863908857342</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8035387065870905</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>79.92188513741469</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6078493256005458</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7992188513741468</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.784648115224259</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>82.42337736485609</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4315242348083605</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.824233773648561</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8217850704443315</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>78.76538724383428</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6104033523549637</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7876538724383428</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7802362513727321</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>88.21027863562833</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3164871896689874</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8821027863562833</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8784855291065152</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>78.1188418584936</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6678762920433655</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7811884185849359</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7644506567032436</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>75.52279864012664</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7524440610975337</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7552279864012664</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7370733300604815</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>93.48099897057934</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1884263990951392</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9348099897057933</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9349937477658458</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>92.69509251810136</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2007573817885714</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9269509251810136</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9263437423098608</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>92.86620126471682</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.183007626949499</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9286620126471682</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9244280256027991</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>84.06243421944251</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.4434085701130971</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8406243421944251</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8340518034828867</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>92.38938053097345</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2012581310482346</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9238938053097346</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9237735779813857</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>90.00173011877266</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3337667703007658</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9000173011877266</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8927947219423039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>95.36873156342183</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1689128443432613</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9536873156342184</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9515313649300634</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>85.87020648967551</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4407302153646014</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8587020648967553</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8468759473211126</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>87.25663716814159</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3083070554227258</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8725663716814159</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8723197341244372</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>89.17438732168964</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3116548359917942</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8917438732168964</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8883279345703465</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>89.85250737463127</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2672506291724858</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8985250737463127</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8961949541669998</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>89.02654867256638</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.36636094294275</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8902654867256636</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.880002991538434</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>86.3716814159292</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.52659105155617</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8637168141592919</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8531935224203595</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>91.76991150442477</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2472375523228645</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9176991150442477</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9106304543394955</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>87.40412979351032</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.554596799305485</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8740412979351031</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8647456432300356</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>85.19174041297936</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.591226286260644</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8519174041297936</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8354834827515056</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>95.48672566371681</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1537169249999958</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9548672566371682</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9548784326761123</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>97.64150208911842</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.06504040117182133</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9764150208911841</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9764340801999868</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>94.12996652220174</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2042836200006301</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9412996652220175</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9379262052800504</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>90.46238577611686</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.316062270680282</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9046238577611685</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8990075364981752</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>92.44837758112094</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2277762051329773</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9244837758112094</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9228362223893285</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>88.1440150866357</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4023453359421789</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.881440150866357</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8740160344714282</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>93.48099897057934</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2245402605357716</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9348099897057933</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9336502009323968</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>88.08259587020649</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3670555020430281</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8808259587020648</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8760611568175595</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>86.57817109144543</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3387486728883232</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8657817109144542</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8639639856292132</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>90.6788121004507</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2830452428994855</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9067881210045069</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9024000491814629</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>89.08554572271387</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2817940385114829</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8908554572271387</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8861010523656881</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>86.72566371681417</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.412443825880473</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8672566371681416</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8604186936370801</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>86.99115044247787</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4629409781851185</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8699115044247787</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8615989277099884</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>92.06489675516224</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2320069090438968</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9206489675516224</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9154488849655109</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>85.6052387996436</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5417340263721901</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8560523879964359</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8426728788449761</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>83.952802359882</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6478821323211681</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8395280235988201</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8232147331946462</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>95.04424778761062</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1503232244799923</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9504424778761061</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9499731074977221</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>97.93510324483776</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.06297014878500704</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9793510324483776</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.97934078763368</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>94.69043849860293</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1955374951967087</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9469043849860294</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9429101755917955</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>90.10053720187892</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3220762665478534</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9010053720187889</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8956404593908317</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
